--- a/biology/Médecine/1573_en_santé_et_médecine/1573_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1573_en_santé_et_médecine/1573_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1573_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1573_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1573 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1573_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1573_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1573-1575 : voyage de Leonhard Rauwolf (1535-1596) au Levant, en quête de nouvelles espèces de simples[1].
-Début de la construction de l'hôtel-Dieu d'Arles, fondé en  1542 par l'archevêque Jean Ferrier II[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1573-1575 : voyage de Leonhard Rauwolf (1535-1596) au Levant, en quête de nouvelles espèces de simples.
+Début de la construction de l'hôtel-Dieu d'Arles, fondé en  1542 par l'archevêque Jean Ferrier II.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1573_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1573_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Nicolas Houël (1524-1587) publie son Traité de la peste, chez Galliot du Pré, à Paris[3].
-Ambroise Paré (1509/1510-1590) publie ses Deux livres de chirurgie, chez André Wechel, à Paris[4],[5].
-Costanzo Varolio (1543-1575) fait paraître à Padoue, chez les frères Meietti, son traité sur les nerfs optiques (De nervis opticis[6]).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nicolas Houël (1524-1587) publie son Traité de la peste, chez Galliot du Pré, à Paris.
+Ambroise Paré (1509/1510-1590) publie ses Deux livres de chirurgie, chez André Wechel, à Paris,.
+Costanzo Varolio (1543-1575) fait paraître à Padoue, chez les frères Meietti, son traité sur les nerfs optiques (De nervis opticis).</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1573_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1573_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>28 septembre : Théodore de Mayerne (mort en 1654 ou 1655), médecin et chimiste suisse[7].
-Juan de Pablo Bonet (mort en 1633), administrateur et pédagogue espagnol, pionnier de l'éducation oraliste des sourds[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>28 septembre : Théodore de Mayerne (mort en 1654 ou 1655), médecin et chimiste suisse.
+Juan de Pablo Bonet (mort en 1633), administrateur et pédagogue espagnol, pionnier de l'éducation oraliste des sourds.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1573_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1573_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,11 +623,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5 mai : Philibert Sarrasin (né vers 1500), médecin français[9].
-29 juillet : John Caius (né en 1510), médecin anglais[10].
-René Martineau (né en 1510), médecin français[11].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5 mai : Philibert Sarrasin (né vers 1500), médecin français.
+29 juillet : John Caius (né en 1510), médecin anglais.
+René Martineau (né en 1510), médecin français.</t>
         </is>
       </c>
     </row>
